--- a/Team-Data/2012-13/1-15-2012-13.xlsx
+++ b/Team-Data/2012-13/1-15-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-0.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>11</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>-0.4</v>
       </c>
       <c r="AD3" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
@@ -935,10 +1002,10 @@
         <v>13</v>
       </c>
       <c r="AG3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI3" t="n">
         <v>14</v>
@@ -971,7 +1038,7 @@
         <v>28</v>
       </c>
       <c r="AS3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1030,28 +1097,28 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F4" t="n">
         <v>15</v>
       </c>
       <c r="G4" t="n">
-        <v>0.605</v>
+        <v>0.595</v>
       </c>
       <c r="H4" t="n">
         <v>48.7</v>
       </c>
       <c r="I4" t="n">
-        <v>35.4</v>
+        <v>35.2</v>
       </c>
       <c r="J4" t="n">
         <v>79.59999999999999</v>
       </c>
       <c r="K4" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L4" t="n">
         <v>7.5</v>
@@ -1063,55 +1130,55 @@
         <v>0.348</v>
       </c>
       <c r="O4" t="n">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="P4" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.751</v>
+        <v>0.746</v>
       </c>
       <c r="R4" t="n">
         <v>12.6</v>
       </c>
       <c r="S4" t="n">
-        <v>29.4</v>
+        <v>29.6</v>
       </c>
       <c r="T4" t="n">
-        <v>42</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="V4" t="n">
-        <v>14.1</v>
+        <v>14.4</v>
       </c>
       <c r="W4" t="n">
         <v>7.2</v>
       </c>
       <c r="X4" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AA4" t="n">
         <v>21.4</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.7</v>
+        <v>96.3</v>
       </c>
       <c r="AC4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AF4" t="n">
         <v>8</v>
@@ -1123,7 +1190,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ4" t="n">
         <v>28</v>
@@ -1138,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="AN4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO4" t="n">
         <v>7</v>
@@ -1147,28 +1214,28 @@
         <v>8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AR4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AT4" t="n">
         <v>15</v>
       </c>
       <c r="AU4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AW4" t="n">
         <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY4" t="n">
         <v>6</v>
@@ -1180,10 +1247,10 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BC4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1212,58 +1279,58 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E5" t="n">
         <v>9</v>
       </c>
       <c r="F5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" t="n">
-        <v>0.237</v>
+        <v>0.243</v>
       </c>
       <c r="H5" t="n">
         <v>48.7</v>
       </c>
       <c r="I5" t="n">
-        <v>34.9</v>
+        <v>35.2</v>
       </c>
       <c r="J5" t="n">
-        <v>82.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="K5" t="n">
-        <v>0.423</v>
+        <v>0.424</v>
       </c>
       <c r="L5" t="n">
         <v>5.8</v>
       </c>
       <c r="M5" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="N5" t="n">
         <v>0.348</v>
       </c>
       <c r="O5" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="P5" t="n">
-        <v>25.8</v>
+        <v>25.7</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
       </c>
       <c r="R5" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="S5" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T5" t="n">
-        <v>41.3</v>
+        <v>41.6</v>
       </c>
       <c r="U5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="V5" t="n">
         <v>14.2</v>
@@ -1272,31 +1339,31 @@
         <v>7.4</v>
       </c>
       <c r="X5" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y5" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.8</v>
+        <v>95.3</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>28</v>
       </c>
       <c r="AF5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG5" t="n">
         <v>28</v>
@@ -1320,34 +1387,34 @@
         <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ5" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AR5" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AS5" t="n">
         <v>25</v>
       </c>
       <c r="AT5" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
       </c>
       <c r="AV5" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1356,13 +1423,13 @@
         <v>30</v>
       </c>
       <c r="AZ5" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA5" t="n">
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1472,7 +1539,7 @@
         <v>2.2</v>
       </c>
       <c r="AD6" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
         <v>11</v>
@@ -1493,7 +1560,7 @@
         <v>25</v>
       </c>
       <c r="AK6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>30</v>
@@ -1502,7 +1569,7 @@
         <v>30</v>
       </c>
       <c r="AN6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO6" t="n">
         <v>8</v>
@@ -1523,7 +1590,7 @@
         <v>7</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV6" t="n">
         <v>18</v>
@@ -1538,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA6" t="n">
         <v>11</v>
@@ -1547,7 +1614,7 @@
         <v>26</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1669,7 +1736,7 @@
         <v>25</v>
       </c>
       <c r="AI7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>3</v>
@@ -1684,7 +1751,7 @@
         <v>10</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
         <v>21</v>
@@ -1702,7 +1769,7 @@
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>29</v>
@@ -1726,7 +1793,7 @@
         <v>12</v>
       </c>
       <c r="BB7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BC7" t="n">
         <v>27</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1836,16 +1903,16 @@
         <v>-3.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AG8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AH8" t="n">
         <v>1</v>
@@ -1866,7 +1933,7 @@
         <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO8" t="n">
         <v>15</v>
@@ -1881,13 +1948,13 @@
         <v>27</v>
       </c>
       <c r="AS8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT8" t="n">
         <v>19</v>
       </c>
       <c r="AU8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV8" t="n">
         <v>14</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -1940,88 +2007,88 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>16</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="H9" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I9" t="n">
-        <v>39.6</v>
+        <v>39.4</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.465</v>
+        <v>0.464</v>
       </c>
       <c r="L9" t="n">
         <v>6.2</v>
       </c>
       <c r="M9" t="n">
-        <v>18.9</v>
+        <v>18.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.33</v>
+        <v>0.329</v>
       </c>
       <c r="O9" t="n">
-        <v>17.2</v>
+        <v>17.4</v>
       </c>
       <c r="P9" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.679</v>
+        <v>0.68</v>
       </c>
       <c r="R9" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="S9" t="n">
-        <v>32.1</v>
+        <v>32.2</v>
       </c>
       <c r="T9" t="n">
-        <v>46.2</v>
+        <v>46.4</v>
       </c>
       <c r="U9" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V9" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W9" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
         <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.3</v>
+        <v>20.2</v>
       </c>
       <c r="AA9" t="n">
         <v>21.8</v>
       </c>
       <c r="AB9" t="n">
-        <v>102.7</v>
+        <v>102.4</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AE9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF9" t="n">
         <v>11</v>
@@ -2030,7 +2097,7 @@
         <v>10</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AI9" t="n">
         <v>2</v>
@@ -2045,16 +2112,16 @@
         <v>23</v>
       </c>
       <c r="AM9" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AN9" t="n">
         <v>28</v>
       </c>
       <c r="AO9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ9" t="n">
         <v>30</v>
@@ -2066,16 +2133,16 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,13 +2151,13 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
       </c>
       <c r="BB9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC9" t="n">
         <v>7</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -2200,28 +2267,28 @@
         <v>-1.2</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE10" t="n">
         <v>22</v>
       </c>
       <c r="AF10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH10" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK10" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AL10" t="n">
         <v>22</v>
@@ -2242,7 +2309,7 @@
         <v>27</v>
       </c>
       <c r="AR10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS10" t="n">
         <v>13</v>
@@ -2251,7 +2318,7 @@
         <v>8</v>
       </c>
       <c r="AU10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AV10" t="n">
         <v>24</v>
@@ -2272,10 +2339,10 @@
         <v>9</v>
       </c>
       <c r="BB10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BC10" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -2382,10 +2449,10 @@
         <v>1.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AF11" t="n">
         <v>6</v>
@@ -2400,7 +2467,7 @@
         <v>6</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>8</v>
@@ -2457,7 +2524,7 @@
         <v>9</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -2486,55 +2553,55 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="n">
         <v>21</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="n">
-        <v>0.538</v>
+        <v>0.553</v>
       </c>
       <c r="H12" t="n">
         <v>48.4</v>
       </c>
       <c r="I12" t="n">
-        <v>38.3</v>
+        <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="K12" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="L12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>28</v>
+        <v>27.7</v>
       </c>
       <c r="N12" t="n">
         <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="P12" t="n">
         <v>25.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.749</v>
+        <v>0.754</v>
       </c>
       <c r="R12" t="n">
         <v>10.6</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.4</v>
       </c>
       <c r="T12" t="n">
-        <v>42.8</v>
+        <v>43</v>
       </c>
       <c r="U12" t="n">
         <v>22.8</v>
@@ -2546,43 +2613,43 @@
         <v>8.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA12" t="n">
         <v>19.7</v>
       </c>
       <c r="AB12" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
         <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>7</v>
@@ -2594,28 +2661,28 @@
         <v>2</v>
       </c>
       <c r="AN12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AO12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>23</v>
       </c>
       <c r="AS12" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AT12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>30</v>
@@ -2624,13 +2691,13 @@
         <v>3</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AY12" t="n">
         <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA12" t="n">
         <v>16</v>
@@ -2639,7 +2706,7 @@
         <v>1</v>
       </c>
       <c r="BC12" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -2668,16 +2735,16 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F13" t="n">
         <v>15</v>
       </c>
       <c r="G13" t="n">
-        <v>0.615</v>
+        <v>0.605</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
@@ -2686,7 +2753,7 @@
         <v>34.1</v>
       </c>
       <c r="J13" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K13" t="n">
         <v>0.42</v>
@@ -2698,58 +2765,58 @@
         <v>19.3</v>
       </c>
       <c r="N13" t="n">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="O13" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P13" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.736</v>
+        <v>0.733</v>
       </c>
       <c r="R13" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.4</v>
+        <v>33.2</v>
       </c>
       <c r="T13" t="n">
-        <v>46.5</v>
+        <v>46.1</v>
       </c>
       <c r="U13" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="V13" t="n">
         <v>14.9</v>
       </c>
       <c r="W13" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X13" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y13" t="n">
         <v>5.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>19.6</v>
+        <v>19.4</v>
       </c>
       <c r="AA13" t="n">
         <v>21.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>91.3</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AD13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>30</v>
@@ -2776,13 +2843,13 @@
         <v>16</v>
       </c>
       <c r="AN13" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AO13" t="n">
         <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ13" t="n">
         <v>24</v>
@@ -2791,10 +2858,10 @@
         <v>5</v>
       </c>
       <c r="AS13" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT13" t="n">
         <v>2</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>1</v>
       </c>
       <c r="AU13" t="n">
         <v>28</v>
@@ -2821,7 +2888,7 @@
         <v>29</v>
       </c>
       <c r="BC13" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -2850,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" t="n">
         <v>9</v>
       </c>
       <c r="G14" t="n">
-        <v>0.769</v>
+        <v>0.763</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J14" t="n">
         <v>80.90000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.478</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="M14" t="n">
         <v>20.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.355</v>
+        <v>0.35</v>
       </c>
       <c r="O14" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P14" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.718</v>
+        <v>0.714</v>
       </c>
       <c r="R14" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="S14" t="n">
-        <v>30.3</v>
+        <v>30.5</v>
       </c>
       <c r="T14" t="n">
-        <v>41.7</v>
+        <v>41.8</v>
       </c>
       <c r="U14" t="n">
         <v>23.8</v>
       </c>
       <c r="V14" t="n">
-        <v>14.4</v>
+        <v>14.3</v>
       </c>
       <c r="W14" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="X14" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.9</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.4</v>
+        <v>21.3</v>
       </c>
       <c r="AB14" t="n">
-        <v>102.1</v>
+        <v>101.7</v>
       </c>
       <c r="AC14" t="n">
         <v>8.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF14" t="n">
         <v>2</v>
@@ -2946,7 +3013,7 @@
         <v>3</v>
       </c>
       <c r="AJ14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -2958,10 +3025,10 @@
         <v>11</v>
       </c>
       <c r="AN14" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AO14" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP14" t="n">
         <v>9</v>
@@ -2970,28 +3037,28 @@
         <v>26</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AS14" t="n">
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AU14" t="n">
         <v>2</v>
       </c>
       <c r="AV14" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
       </c>
       <c r="AX14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ14" t="n">
         <v>22</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3032,61 +3099,61 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F15" t="n">
         <v>21</v>
       </c>
       <c r="G15" t="n">
-        <v>0.447</v>
+        <v>0.432</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.3</v>
       </c>
       <c r="J15" t="n">
         <v>81.90000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.456</v>
+        <v>0.455</v>
       </c>
       <c r="L15" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="M15" t="n">
-        <v>25.3</v>
+        <v>25.2</v>
       </c>
       <c r="N15" t="n">
         <v>0.355</v>
       </c>
       <c r="O15" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="P15" t="n">
-        <v>28.4</v>
+        <v>28.7</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.695</v>
       </c>
       <c r="R15" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="S15" t="n">
-        <v>32.8</v>
+        <v>32.7</v>
       </c>
       <c r="T15" t="n">
         <v>45.3</v>
       </c>
       <c r="U15" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="V15" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="W15" t="n">
         <v>7.6</v>
@@ -3098,19 +3165,19 @@
         <v>5</v>
       </c>
       <c r="Z15" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AB15" t="n">
         <v>103.4</v>
       </c>
       <c r="AC15" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>18</v>
@@ -3122,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="AH15" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI15" t="n">
         <v>11</v>
@@ -3131,7 +3198,7 @@
         <v>18</v>
       </c>
       <c r="AK15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>3</v>
@@ -3140,7 +3207,7 @@
         <v>3</v>
       </c>
       <c r="AN15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>2</v>
@@ -3152,7 +3219,7 @@
         <v>29</v>
       </c>
       <c r="AR15" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AS15" t="n">
         <v>5</v>
@@ -3161,7 +3228,7 @@
         <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AV15" t="n">
         <v>26</v>
@@ -3170,13 +3237,13 @@
         <v>18</v>
       </c>
       <c r="AX15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY15" t="n">
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA15" t="n">
         <v>1</v>
@@ -3185,7 +3252,7 @@
         <v>4</v>
       </c>
       <c r="BC15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE16" t="n">
         <v>4</v>
@@ -3337,10 +3404,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU16" t="n">
         <v>22</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3474,7 +3541,7 @@
         <v>5</v>
       </c>
       <c r="AD17" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>4</v>
@@ -3489,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="AI17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AJ17" t="n">
         <v>30</v>
@@ -3507,7 +3574,7 @@
         <v>1</v>
       </c>
       <c r="AO17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP17" t="n">
         <v>12</v>
@@ -3519,19 +3586,19 @@
         <v>30</v>
       </c>
       <c r="AS17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
@@ -3540,13 +3607,13 @@
         <v>1</v>
       </c>
       <c r="AZ17" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA17" t="n">
         <v>14</v>
       </c>
       <c r="BB17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC17" t="n">
         <v>4</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3578,115 +3645,115 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" t="n">
         <v>19</v>
       </c>
       <c r="F18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
-        <v>0.514</v>
+        <v>0.528</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>37.1</v>
+        <v>37.2</v>
       </c>
       <c r="J18" t="n">
-        <v>85.90000000000001</v>
+        <v>85.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.432</v>
+        <v>0.435</v>
       </c>
       <c r="L18" t="n">
         <v>6.1</v>
       </c>
       <c r="M18" t="n">
-        <v>18.1</v>
+        <v>17.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.336</v>
+        <v>0.34</v>
       </c>
       <c r="O18" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="P18" t="n">
         <v>21.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.746</v>
+        <v>0.75</v>
       </c>
       <c r="R18" t="n">
-        <v>12.8</v>
+        <v>12.6</v>
       </c>
       <c r="S18" t="n">
         <v>30.6</v>
       </c>
       <c r="T18" t="n">
-        <v>43.5</v>
+        <v>43.2</v>
       </c>
       <c r="U18" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="V18" t="n">
         <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z18" t="n">
-        <v>19.2</v>
+        <v>19.4</v>
       </c>
       <c r="AA18" t="n">
         <v>19.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>96.3</v>
+        <v>96.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.2</v>
+        <v>-0.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
       </c>
       <c r="AF18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
       </c>
       <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
         <v>25</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
       </c>
       <c r="AN18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3695,22 +3762,22 @@
         <v>18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AS18" t="n">
+        <v>16</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU18" t="n">
         <v>15</v>
       </c>
-      <c r="AT18" t="n">
-        <v>9</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>19</v>
-      </c>
       <c r="AV18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
@@ -3719,19 +3786,19 @@
         <v>1</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>29</v>
       </c>
       <c r="AE19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF19" t="n">
         <v>17</v>
@@ -3853,7 +3920,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ19" t="n">
         <v>16</v>
@@ -3865,7 +3932,7 @@
         <v>27</v>
       </c>
       <c r="AM19" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN19" t="n">
         <v>30</v>
@@ -3874,7 +3941,7 @@
         <v>5</v>
       </c>
       <c r="AP19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AQ19" t="n">
         <v>23</v>
@@ -3889,7 +3956,7 @@
         <v>4</v>
       </c>
       <c r="AU19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV19" t="n">
         <v>25</v>
@@ -3910,7 +3977,7 @@
         <v>2</v>
       </c>
       <c r="BB19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BC19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -3942,55 +4009,55 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" t="n">
         <v>26</v>
       </c>
       <c r="G20" t="n">
-        <v>0.316</v>
+        <v>0.297</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>35.7</v>
+        <v>35.5</v>
       </c>
       <c r="J20" t="n">
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.445</v>
+        <v>0.443</v>
       </c>
       <c r="L20" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="M20" t="n">
         <v>18.6</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="P20" t="n">
         <v>18.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.777</v>
       </c>
       <c r="R20" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S20" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T20" t="n">
-        <v>41.5</v>
+        <v>41.4</v>
       </c>
       <c r="U20" t="n">
         <v>21.2</v>
@@ -3999,28 +4066,28 @@
         <v>14.4</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>5.4</v>
       </c>
       <c r="Y20" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.4</v>
+        <v>18.3</v>
       </c>
       <c r="AB20" t="n">
-        <v>92.40000000000001</v>
+        <v>91.90000000000001</v>
       </c>
       <c r="AC20" t="n">
-        <v>-4.4</v>
+        <v>-4.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
         <v>27</v>
@@ -4032,25 +4099,25 @@
         <v>27</v>
       </c>
       <c r="AH20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
       </c>
       <c r="AK20" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AM20" t="n">
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO20" t="n">
         <v>27</v>
@@ -4059,22 +4126,22 @@
         <v>28</v>
       </c>
       <c r="AQ20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR20" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AS20" t="n">
         <v>20</v>
       </c>
       <c r="AT20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AU20" t="n">
         <v>20</v>
       </c>
       <c r="AV20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW20" t="n">
         <v>28</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>4.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>4</v>
@@ -4217,13 +4284,13 @@
         <v>28</v>
       </c>
       <c r="AI21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="n">
         <v>5</v>
       </c>
       <c r="AK21" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4247,7 +4314,7 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT21" t="n">
         <v>27</v>
@@ -4262,7 +4329,7 @@
         <v>8</v>
       </c>
       <c r="AX21" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AY21" t="n">
         <v>2</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE22" t="n">
         <v>1</v>
@@ -4432,7 +4499,7 @@
         <v>4</v>
       </c>
       <c r="AT22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AU22" t="n">
         <v>18</v>
@@ -4450,7 +4517,7 @@
         <v>3</v>
       </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>-3.6</v>
       </c>
       <c r="AD23" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>25</v>
       </c>
       <c r="AF23" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG23" t="n">
         <v>25</v>
@@ -4587,13 +4654,13 @@
         <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM23" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN23" t="n">
         <v>20</v>
@@ -4611,7 +4678,7 @@
         <v>24</v>
       </c>
       <c r="AS23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AT23" t="n">
         <v>13</v>
@@ -4632,13 +4699,13 @@
         <v>10</v>
       </c>
       <c r="AZ23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA23" t="n">
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>23</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -4670,43 +4737,43 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E24" t="n">
         <v>16</v>
       </c>
       <c r="F24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.41</v>
+        <v>0.421</v>
       </c>
       <c r="H24" t="n">
         <v>48.3</v>
       </c>
       <c r="I24" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J24" t="n">
-        <v>83.59999999999999</v>
+        <v>83.7</v>
       </c>
       <c r="K24" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L24" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="M24" t="n">
-        <v>18.2</v>
+        <v>18.1</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.356</v>
       </c>
       <c r="O24" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="P24" t="n">
-        <v>17.5</v>
+        <v>17.6</v>
       </c>
       <c r="Q24" t="n">
         <v>0.722</v>
@@ -4715,22 +4782,22 @@
         <v>10.8</v>
       </c>
       <c r="S24" t="n">
-        <v>30.3</v>
+        <v>30.6</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.4</v>
       </c>
       <c r="U24" t="n">
-        <v>21.8</v>
+        <v>21.6</v>
       </c>
       <c r="V24" t="n">
         <v>12.8</v>
       </c>
       <c r="W24" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X24" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Y24" t="n">
         <v>4.6</v>
@@ -4742,16 +4809,16 @@
         <v>17</v>
       </c>
       <c r="AB24" t="n">
-        <v>92.8</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>-4.4</v>
+        <v>-4.2</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AF24" t="n">
         <v>20</v>
@@ -4760,7 +4827,7 @@
         <v>20</v>
       </c>
       <c r="AH24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
         <v>15</v>
@@ -4769,16 +4836,16 @@
         <v>7</v>
       </c>
       <c r="AK24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL24" t="n">
         <v>20</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>17</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
       </c>
       <c r="AN24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4793,25 +4860,25 @@
         <v>21</v>
       </c>
       <c r="AS24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AV24" t="n">
         <v>3</v>
       </c>
       <c r="AW24" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AX24" t="n">
         <v>18</v>
       </c>
       <c r="AY24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ24" t="n">
         <v>6</v>
@@ -4823,7 +4890,7 @@
         <v>27</v>
       </c>
       <c r="BC24" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -4951,10 +5018,10 @@
         <v>4</v>
       </c>
       <c r="AK25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM25" t="n">
         <v>22</v>
@@ -4981,7 +5048,7 @@
         <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AV25" t="n">
         <v>5</v>
@@ -5005,7 +5072,7 @@
         <v>19</v>
       </c>
       <c r="BC25" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -5034,94 +5101,94 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E26" t="n">
         <v>20</v>
       </c>
       <c r="F26" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G26" t="n">
-        <v>0.526</v>
+        <v>0.541</v>
       </c>
       <c r="H26" t="n">
-        <v>48.9</v>
+        <v>48.8</v>
       </c>
       <c r="I26" t="n">
-        <v>36.3</v>
+        <v>36.1</v>
       </c>
       <c r="J26" t="n">
-        <v>83.3</v>
+        <v>83.2</v>
       </c>
       <c r="K26" t="n">
-        <v>0.435</v>
+        <v>0.434</v>
       </c>
       <c r="L26" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>24.4</v>
+        <v>24.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.341</v>
+        <v>0.342</v>
       </c>
       <c r="O26" t="n">
-        <v>16.3</v>
+        <v>16.2</v>
       </c>
       <c r="P26" t="n">
         <v>21.1</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.771</v>
+        <v>0.769</v>
       </c>
       <c r="R26" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S26" t="n">
-        <v>29.9</v>
+        <v>29.7</v>
       </c>
       <c r="T26" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V26" t="n">
-        <v>14.6</v>
+        <v>14.5</v>
       </c>
       <c r="W26" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="X26" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.9</v>
+        <v>18.8</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
-        <v>97.09999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="AD26" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
       </c>
       <c r="AF26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG26" t="n">
         <v>14</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>15</v>
       </c>
       <c r="AH26" t="n">
         <v>3</v>
@@ -5130,10 +5197,10 @@
         <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AK26" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5142,7 +5209,7 @@
         <v>4</v>
       </c>
       <c r="AN26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO26" t="n">
         <v>20</v>
@@ -5154,13 +5221,13 @@
         <v>12</v>
       </c>
       <c r="AR26" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AS26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT26" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU26" t="n">
         <v>23</v>
@@ -5172,10 +5239,10 @@
         <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -5294,16 +5361,16 @@
         <v>-5.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
         <v>22</v>
       </c>
       <c r="AF27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AG27" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>16</v>
@@ -5312,22 +5379,22 @@
         <v>17</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
       </c>
       <c r="AL27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM27" t="n">
         <v>16</v>
       </c>
-      <c r="AM27" t="n">
-        <v>17</v>
-      </c>
       <c r="AN27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
         <v>13</v>
@@ -5336,7 +5403,7 @@
         <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AS27" t="n">
         <v>29</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -5479,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AE28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF28" t="n">
         <v>3</v>
@@ -5521,10 +5588,10 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -5580,37 +5647,37 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" t="n">
         <v>14</v>
       </c>
       <c r="F29" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G29" t="n">
-        <v>0.368</v>
+        <v>0.378</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
       </c>
       <c r="I29" t="n">
-        <v>35.9</v>
+        <v>35.8</v>
       </c>
       <c r="J29" t="n">
         <v>82</v>
       </c>
       <c r="K29" t="n">
-        <v>0.438</v>
+        <v>0.437</v>
       </c>
       <c r="L29" t="n">
         <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>22</v>
+        <v>22.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.345</v>
+        <v>0.342</v>
       </c>
       <c r="O29" t="n">
         <v>17.4</v>
@@ -5619,7 +5686,7 @@
         <v>22.4</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.777</v>
+        <v>0.775</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
@@ -5631,16 +5698,16 @@
         <v>40</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.4</v>
       </c>
       <c r="V29" t="n">
         <v>12.7</v>
       </c>
       <c r="W29" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X29" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>5.3</v>
@@ -5649,28 +5716,28 @@
         <v>22.8</v>
       </c>
       <c r="AA29" t="n">
-        <v>19.5</v>
+        <v>19.4</v>
       </c>
       <c r="AB29" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>22</v>
       </c>
       <c r="AF29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AG29" t="n">
         <v>22</v>
       </c>
       <c r="AH29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AI29" t="n">
         <v>22</v>
@@ -5688,16 +5755,16 @@
         <v>7</v>
       </c>
       <c r="AN29" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AQ29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR29" t="n">
         <v>22</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AX29" t="n">
         <v>24</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -5849,7 +5916,7 @@
         <v>17</v>
       </c>
       <c r="AG30" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AH30" t="n">
         <v>20</v>
@@ -5864,13 +5931,13 @@
         <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM30" t="n">
         <v>25</v>
       </c>
       <c r="AN30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO30" t="n">
         <v>6</v>
@@ -5882,25 +5949,25 @@
         <v>13</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>14</v>
       </c>
       <c r="AU30" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW30" t="n">
         <v>9</v>
       </c>
       <c r="AX30" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY30" t="n">
         <v>23</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
@@ -6061,7 +6128,7 @@
         <v>25</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AR31" t="n">
         <v>17</v>
@@ -6076,10 +6143,10 @@
         <v>21</v>
       </c>
       <c r="AV31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW31" t="n">
         <v>22</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>20</v>
       </c>
       <c r="AX31" t="n">
         <v>23</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-15-2012-13</t>
+          <t>2013-01-15</t>
         </is>
       </c>
     </row>
